--- a/Documents/House Duty Rosters.xlsx
+++ b/Documents/House Duty Rosters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Dry" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Kitchen" sheetId="3" r:id="rId3"/>
     <sheet name="General" sheetId="4" r:id="rId4"/>
     <sheet name="Wastage" sheetId="5" r:id="rId5"/>
+    <sheet name="Raw Material" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Week 2</t>
-  </si>
-  <si>
     <t>Week 4</t>
   </si>
   <si>
@@ -147,6 +145,33 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DRY DUSTBIN DUTY ROSTER</t>
+  </si>
+  <si>
+    <t>WET DUSTBIN DUTY ROSTER</t>
+  </si>
+  <si>
+    <t>KITCHEN CLEANING DUTY ROSTER</t>
+  </si>
+  <si>
+    <t>GENERAL CLEANING DUTY ROSTER</t>
+  </si>
+  <si>
+    <t>CHAPATI WASTAGE TRACKER</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>KITCHEN RAW MATERIAL</t>
+  </si>
+  <si>
+    <t>STUFF(VEG/GROCERIES)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,652 +576,669 @@
     <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42744</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>42800</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>42747</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+        <v>42751</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="E3" s="4">
         <v>42803</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>42751</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
+        <v>42754</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="E4" s="4">
         <v>42807</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>42754</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
+        <v>42758</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="E5" s="4">
         <v>42810</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>42758</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
+        <v>42761</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="E6" s="4">
         <v>42814</v>
       </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>42761</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
+        <v>42765</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="E7" s="4">
         <v>42817</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>42765</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
+        <v>42768</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="E8" s="4">
         <v>42821</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>42768</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
+        <v>42772</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="E9" s="4">
         <v>42824</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>42772</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
+        <v>42775</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="E10" s="4">
         <v>42828</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>42775</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
+        <v>42779</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="E11" s="4">
         <v>42831</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>42779</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
+        <v>42782</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="E12" s="4">
         <v>42835</v>
       </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>42782</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
+        <v>42786</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="E13" s="4">
         <v>42838</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>42786</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
+        <v>42789</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="E14" s="4">
         <v>42842</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>42789</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
+        <v>42793</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="E15" s="4">
         <v>42845</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>42793</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
+        <v>42796</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="E16" s="4">
         <v>42849</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>42796</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
+        <v>42800</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="E17" s="4">
         <v>42852</v>
       </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="180" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>42744</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4">
-        <v>42800</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>42746</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>42753</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4">
-        <v>42802</v>
-      </c>
-      <c r="F3" t="s">
+        <v>42804</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>42748</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>42755</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4">
-        <v>42804</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+        <v>42807</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>42751</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>42758</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4">
-        <v>42807</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+        <v>42809</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>42753</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>42760</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4">
-        <v>42809</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
+        <v>42811</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>42755</v>
-      </c>
-      <c r="B7" t="s">
+        <v>42762</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4">
-        <v>42811</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
+        <v>42814</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>42758</v>
-      </c>
-      <c r="B8" t="s">
+        <v>42765</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4">
-        <v>42814</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
+        <v>42816</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>42760</v>
-      </c>
-      <c r="B9" t="s">
+        <v>42767</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4">
-        <v>42816</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
+        <v>42818</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>42762</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
+        <v>42769</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3">
-        <v>42818</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
+      <c r="E10" s="4">
+        <v>42821</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>42765</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>42772</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3">
-        <v>42821</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
+      <c r="E11" s="4">
+        <v>42823</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>42767</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
+        <v>42774</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3">
-        <v>42823</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
+      <c r="E12" s="4">
+        <v>42825</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>42769</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
+        <v>42776</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3">
-        <v>42825</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="4">
+        <v>42828</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>42772</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>42779</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="3">
-        <v>42828</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="4">
+        <v>42830</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>42774</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
+        <v>42781</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="3">
-        <v>42830</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="4">
+        <v>42832</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>42776</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
+        <v>42783</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="3">
-        <v>42832</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
+      <c r="E16" s="4">
+        <v>42835</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>42779</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
+        <v>42786</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="3">
-        <v>42835</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
+      <c r="E17" s="4">
+        <v>42837</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>42781</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>42837</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
+        <v>42788</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <v>42839</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>42783</v>
-      </c>
-      <c r="B19" t="s">
+        <v>42790</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3">
-        <v>42839</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
+      <c r="E19" s="4">
+        <v>42842</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>42786</v>
-      </c>
-      <c r="B20" t="s">
+        <v>42793</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
-        <v>42842</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
+      <c r="E20" s="4">
+        <v>42844</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>42788</v>
-      </c>
-      <c r="B21" t="s">
+        <v>42795</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>42844</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
+      <c r="E21" s="4">
+        <v>42846</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>42790</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3">
-        <v>42846</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
+        <v>42797</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42849</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>42793</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>42849</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
+        <v>42800</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>42851</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>42795</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>42851</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>42797</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3">
+        <v>42802</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
         <v>42853</v>
       </c>
-      <c r="F25" t="s">
-        <v>7</v>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="130" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,149 +1247,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="200" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,121 +1409,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="200" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,90 +1565,87 @@
     <col min="5" max="5" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>42744</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>42767</v>
-      </c>
-      <c r="I2">
-        <f>SUM(G2:H2)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>42745</v>
+        <v>42744</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">SUM(B3:C3)</f>
+        <f>SUM(B3:C3)</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>42768</v>
+        <v>42767</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I25" si="1">SUM(G3:H3)</f>
+        <f>SUM(G3:H3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>42746</v>
+        <v>42745</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D22" si="0">SUM(B4:C4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>42769</v>
+        <v>42768</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I4:I26" si="1">SUM(G4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>42747</v>
+        <v>42746</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>42770</v>
+        <v>42769</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -1568,14 +1654,14 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>42748</v>
+        <v>42747</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>42772</v>
+        <v>42770</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
@@ -1584,14 +1670,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>42749</v>
+        <v>42748</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>42773</v>
+        <v>42772</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
@@ -1600,14 +1686,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>42751</v>
+        <v>42749</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>42774</v>
+        <v>42773</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -1616,14 +1702,14 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>42752</v>
+        <v>42751</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>42775</v>
+        <v>42774</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
@@ -1632,14 +1718,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>42753</v>
+        <v>42752</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>42776</v>
+        <v>42775</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
@@ -1648,14 +1734,14 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>42754</v>
+        <v>42753</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>42777</v>
+        <v>42776</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -1664,14 +1750,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>42755</v>
+        <v>42754</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>42779</v>
+        <v>42777</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -1680,14 +1766,14 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>42756</v>
+        <v>42755</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>42780</v>
+        <v>42779</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
@@ -1696,14 +1782,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>42758</v>
+        <v>42756</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>42781</v>
+        <v>42780</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -1712,14 +1798,14 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>42759</v>
+        <v>42758</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>42782</v>
+        <v>42781</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -1728,14 +1814,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>42760</v>
+        <v>42759</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>42783</v>
+        <v>42782</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -1744,14 +1830,14 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>42761</v>
+        <v>42760</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>42784</v>
+        <v>42783</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -1760,14 +1846,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>42762</v>
+        <v>42761</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>42786</v>
+        <v>42784</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
@@ -1776,14 +1862,14 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>42763</v>
+        <v>42762</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>42787</v>
+        <v>42786</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -1792,14 +1878,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>42765</v>
+        <v>42763</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>42788</v>
+        <v>42787</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -1808,33 +1894,40 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>42766</v>
+        <v>42765</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>42788</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42766</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>42789</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="F22" s="3">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="F23" s="3">
         <v>42790</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="3">
-        <v>42791</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -1843,7 +1936,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="3">
-        <v>42793</v>
+        <v>42791</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -1852,33 +1945,89 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" s="3">
+        <v>42793</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
         <v>42794</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="5">
-        <f>SUM(D27,I27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <f>SUM(D2:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="I27" s="5">
-        <f>SUM(I2:I25)</f>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="5">
+        <f>SUM(D28,I28)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <f>SUM(D3:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="I28" s="5">
+        <f>SUM(I3:I26)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="110" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>